--- a/SeminarPaper/Model/input data/ntc.xlsx
+++ b/SeminarPaper/Model/input data/ntc.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FC1E16-47B4-4177-8821-E41519B5D245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA91F71-9915-4F22-BCA9-101F91DFEDF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
   <si>
     <t>BE</t>
   </si>
@@ -47,13 +47,22 @@
   </si>
   <si>
     <t>UK</t>
+  </si>
+  <si>
+    <t>Full Country List</t>
+  </si>
+  <si>
+    <t>Aggregated Country List</t>
+  </si>
+  <si>
+    <t>IB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,27 +70,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -93,8 +107,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -375,116 +391,222 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="B1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J3" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J10">
-        <v>0</v>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:K2"/>
+    <mergeCell ref="B14:K15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SeminarPaper/Model/input data/ntc.xlsx
+++ b/SeminarPaper/Model/input data/ntc.xlsx
@@ -3,24 +3,29 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DA91F71-9915-4F22-BCA9-101F91DFEDF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDC21A5-9C60-41D8-A020-12FABCB5279A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
   <si>
     <t>BE</t>
   </si>
@@ -56,6 +61,9 @@
   </si>
   <si>
     <t>IB</t>
+  </si>
+  <si>
+    <t>Inf</t>
   </si>
 </sst>
 </file>
@@ -79,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,8 +100,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -101,14 +121,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -391,222 +535,473 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:K22"/>
+  <dimension ref="B1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
+      <c r="B4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="13">
+        <v>1500</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12">
+        <v>1426</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12">
+        <v>1091.25</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E6">
-        <v>0</v>
+      <c r="C6" s="12">
+        <v>2600</v>
+      </c>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1800</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="15">
+        <v>1241.6666666666599</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12">
+        <v>2075</v>
+      </c>
+      <c r="E7" s="12">
+        <v>1675</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="12">
+        <v>980</v>
+      </c>
+      <c r="H7" s="12">
+        <v>2850</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12">
+        <v>980</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H9">
-        <v>0</v>
+      <c r="C9" s="18">
+        <v>1426</v>
+      </c>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>2400</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="14">
+        <v>1016</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="12">
+        <v>1500</v>
+      </c>
+      <c r="K10" s="14"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="15">
+        <v>1070.8333333333301</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12">
+        <v>1468.75</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="14"/>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B14" s="2" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16">
+        <v>2000</v>
+      </c>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16">
+        <v>1016</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="2:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+      <c r="C17" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="20">
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <f>F5</f>
+        <v>1091.25</v>
+      </c>
+      <c r="F17" s="20">
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
+      <c r="C18" s="20">
+        <v>0</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="20">
+        <f>F6</f>
+        <v>1800</v>
+      </c>
+      <c r="F18" s="20">
+        <f>C6+G6+H6</f>
+        <v>2600</v>
+      </c>
+      <c r="G18" s="22">
+        <f>J6</f>
+        <v>1241.6666666666599</v>
+      </c>
+      <c r="H18" s="21">
+        <f>K6</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="19" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+      <c r="C19" s="20">
+        <f>D7</f>
+        <v>2075</v>
+      </c>
+      <c r="D19" s="20">
+        <f>E7</f>
+        <v>1675</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" s="20">
+        <f>C7+G7+H7</f>
+        <v>3830</v>
+      </c>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="19" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="C20" s="20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="20">
+        <f>E9+E4+E8</f>
+        <v>1500</v>
+      </c>
+      <c r="E20" s="20">
+        <f>F4+F8+F9</f>
+        <v>3380</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="21">
+        <f>K9</f>
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
+      <c r="C21" s="20">
+        <v>0</v>
+      </c>
+      <c r="D21" s="22">
+        <f>E11</f>
+        <v>1070.8333333333301</v>
+      </c>
+      <c r="E21" s="20">
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <v>0</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
+      <c r="C22" s="23">
+        <v>0</v>
+      </c>
+      <c r="D22" s="23">
+        <f>E12</f>
+        <v>2000</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23">
+        <f>H12</f>
+        <v>1016</v>
+      </c>
+      <c r="G22" s="23">
+        <f>H12</f>
+        <v>1016</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:K2"/>
-    <mergeCell ref="B14:K15"/>
+    <mergeCell ref="B14:H15"/>
   </mergeCells>
+  <conditionalFormatting sqref="C4:K11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>